--- a/flow.xlsx
+++ b/flow.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\Practice\Gradius_Training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E1EEEE-C423-4C06-A2FF-6433E6CD807F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF3D21C-5FFB-4C54-A9C4-1F0019520672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="3040" windowWidth="28800" windowHeight="15910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26620" yWindow="3830" windowWidth="28800" windowHeight="15910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,9 +25,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="11">
   <si>
-    <t>ga</t>
+    <t>time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cameraX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ruguru</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>urosu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>garun</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ducker</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>video time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>type1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>type2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>position</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -35,7 +75,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,13 +90,38 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -71,8 +136,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -353,23 +423,1099 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="8.9140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <f>A2-11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <f>A3-11</f>
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <v>21.3</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B48" si="0">A4-11</f>
+        <v>10.3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>23.6</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>12.600000000000001</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>25.9</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>14.899999999999999</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8">
+        <v>31.5</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>20.5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9">
+        <v>33</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10">
+        <v>35.6</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>24.6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <v>37.9</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>26.9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>29.200000000000003</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13">
+        <v>41</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14">
+        <v>42.5</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>31.5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="M14">
+        <v>7</v>
+      </c>
+      <c r="N14" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15">
+        <v>44.3</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>33.299999999999997</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16">
+        <v>45.5</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>34.5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17">
+        <v>46</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18">
+        <v>46.7</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>35.700000000000003</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="2">
+        <v>5</v>
+      </c>
+      <c r="F18" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19">
+        <v>47.9</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>36.9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>7</v>
+      </c>
+      <c r="K19" t="s">
+        <v>4</v>
+      </c>
+      <c r="L19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20">
+        <v>49.1</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>38.1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21">
+        <v>50.3</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>39.299999999999997</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="K21" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22">
+        <v>51.5</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>40.5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23">
+        <v>52</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24">
+        <v>54</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25">
+        <v>56</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
+      <c r="D25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26">
+        <v>59</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27">
+        <v>61</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="K27" t="s">
+        <v>6</v>
+      </c>
+      <c r="L27">
+        <v>-1</v>
+      </c>
+      <c r="M27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28">
+        <v>63</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29">
+        <v>70</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2</v>
+      </c>
+      <c r="F29" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30">
+        <v>71</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31">
+        <v>72</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>4</v>
+      </c>
+      <c r="I31">
+        <v>5</v>
+      </c>
+      <c r="J31">
+        <v>7</v>
+      </c>
+      <c r="K31" t="s">
+        <v>6</v>
+      </c>
+      <c r="L31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32">
+        <v>73</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33">
+        <v>77</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34">
+        <v>80</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="K34" t="s">
+        <v>4</v>
+      </c>
+      <c r="L34">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>83</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36">
+        <v>84</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="D36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37">
+        <v>87</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2</v>
+      </c>
+      <c r="F37" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38">
+        <v>88</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39">
+        <v>90</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="D39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40">
+        <v>91</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41">
+        <v>92</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="D41" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="1">
+        <v>3</v>
+      </c>
+      <c r="F41" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42">
+        <v>94</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="D42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>6</v>
+      </c>
+      <c r="K42" t="s">
+        <v>6</v>
+      </c>
+      <c r="L42">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43">
+        <v>96</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="D43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44">
+        <v>97</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="D44" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45">
+        <v>98</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="D45" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46">
+        <v>99</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="D46" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47">
+        <v>101</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48">
+        <v>104</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="D48" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="5">
+        <v>0</v>
+      </c>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="5">
+        <v>1</v>
+      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="5">
+        <v>2</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="5"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="5">
+        <v>3</v>
+      </c>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="5">
+        <v>4</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="5">
+        <v>5</v>
+      </c>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="5"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="5">
+        <v>6</v>
+      </c>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="5">
+        <v>7</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="5">
+        <v>8</v>
+      </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="5">
+        <v>9</v>
+      </c>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/flow.xlsx
+++ b/flow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\Practice\Gradius_Training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF3D21C-5FFB-4C54-A9C4-1F0019520672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01019000-2C8D-4857-88AC-06E7415827F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26620" yWindow="3830" windowWidth="28800" windowHeight="15910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4980" yWindow="3290" windowWidth="28800" windowHeight="15910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="12">
   <si>
     <t>time</t>
     <phoneticPr fontId="1"/>
@@ -70,6 +70,10 @@
     <t>position</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>RushWave</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -98,7 +102,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,6 +127,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -136,13 +146,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -423,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N64"/>
+  <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1030,7 +1041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:17">
       <c r="A33">
         <v>77</v>
       </c>
@@ -1051,7 +1062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:17">
       <c r="A34">
         <v>80</v>
       </c>
@@ -1077,8 +1088,17 @@
       <c r="L34">
         <v>-1</v>
       </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="O34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P34">
+        <v>9</v>
+      </c>
+      <c r="Q34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35">
         <v>83</v>
       </c>
@@ -1093,7 +1113,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:17">
       <c r="A36">
         <v>84</v>
       </c>
@@ -1108,7 +1128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:17">
       <c r="A37">
         <v>87</v>
       </c>
@@ -1126,7 +1146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:17">
       <c r="A38">
         <v>88</v>
       </c>
@@ -1144,7 +1164,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:17">
       <c r="A39">
         <v>90</v>
       </c>
@@ -1162,7 +1182,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:17">
       <c r="A40">
         <v>91</v>
       </c>
@@ -1180,7 +1200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:17">
       <c r="A41">
         <v>92</v>
       </c>
@@ -1198,7 +1218,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:17">
       <c r="A42">
         <v>94</v>
       </c>
@@ -1222,7 +1242,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:17">
       <c r="A43">
         <v>96</v>
       </c>
@@ -1239,8 +1259,18 @@
       <c r="F43" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="L43" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M43">
+        <v>9</v>
+      </c>
+      <c r="N43">
+        <v>4</v>
+      </c>
+      <c r="O43" s="2"/>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44">
         <v>97</v>
       </c>
@@ -1255,7 +1285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:17">
       <c r="A45">
         <v>98</v>
       </c>
@@ -1269,8 +1299,26 @@
       <c r="E45">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="1:12">
+      <c r="L45" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M45">
+        <v>-1</v>
+      </c>
+      <c r="N45">
+        <v>3</v>
+      </c>
+      <c r="O45" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P45">
+        <v>9</v>
+      </c>
+      <c r="Q45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46">
         <v>99</v>
       </c>
@@ -1285,7 +1333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:17">
       <c r="A47">
         <v>101</v>
       </c>
@@ -1300,7 +1348,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:17">
       <c r="A48">
         <v>104</v>
       </c>
